--- a/assets/examples/xlsx/RS0006/Drive-Constant-Efficiency.RS0006.a205.xlsx
+++ b/assets/examples/xlsx/RS0006/Drive-Constant-Efficiency.RS0006.a205.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="RS0006" sheetId="1" state="visible" r:id="rId1"/>
@@ -78,7 +78,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -86,6 +86,7 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="00000000"/>
@@ -99,44 +100,111 @@
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0"/>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0"/>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment textRotation="45"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="Title" xfId="1"/>
-    <cellStyle hidden="0" name="Heading" xfId="2"/>
-    <cellStyle hidden="0" name="Schema" xfId="3"/>
-    <cellStyle hidden="0" name="Value" xfId="4"/>
-    <cellStyle hidden="0" name="Grid Variables" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Title" xfId="1" hidden="0"/>
+    <cellStyle name="Heading" xfId="2" hidden="0"/>
+    <cellStyle name="Schema" xfId="3" hidden="0"/>
+    <cellStyle name="Value" xfId="4" hidden="0"/>
+    <cellStyle name="Grid Variables" xfId="5" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -146,104 +214,104 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B3" shapeId="0">
-      <text>
-        <t>ASHRAE 205 standard version</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B4" shapeId="0">
-      <text>
-        <t>ASHRAE 205 schema version</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B5" shapeId="0">
-      <text>
-        <t>Representation specification identifier</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B6" shapeId="0">
-      <text>
-        <t>Free-form description of equipment (suitable for display)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B7" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Metadata data group</t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <t>Data model name</t>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <t>The version of the schema the data complies with</t>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <t>Schema name or identifier</t>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <t>Description of data (suitable for display)</t>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <t>Unique equipment identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B8" shapeId="0">
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <t>Date of publication</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B9" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <t>Integer version identifier for the data in the representation</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B10" shapeId="0">
-      <text>
-        <t>Free-form identification of the source of this data</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B11" shapeId="0">
-      <text>
-        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B12" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <t>Source(s) of the data</t>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <t>Characterization of accuracy, limitations, and applicability of this data</t>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <t>Additional Information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A13" shapeId="0">
-      <text>
-        <t>*Representation Specification* Data Group</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A14" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <t>Data group describing product and rating information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A15" shapeId="0">
+    <comment ref="A15" authorId="0" shapeId="0">
       <text>
         <t>Data group describing product information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B16" shapeId="0">
-      <text>
-        <t>Name of the manufacturer</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B17" shapeId="0">
-      <text>
-        <t>Model number for this chiller</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A18" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0">
+      <text>
+        <t>Manufacturer name</t>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0">
+      <text>
+        <t>Model number</t>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0" shapeId="0">
       <text>
         <t>Data group containing performance information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B19" shapeId="0">
-      <text>
-        <t>Maximum operational input power to the motor</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B20" shapeId="0">
-      <text>
-        <t>Continuous unit power draw regardless of whether the fan or DX system are operating.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B21" shapeId="0">
-      <text>
-        <t>Method used to cool the electronic drive.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A22" shapeId="0">
-      <text>
-        <t>Data group describing fan performance when operating</t>
+    <comment ref="B19" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum power draw of the drive</t>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0">
+      <text>
+        <t>Power draw when the motor is not operating</t>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0">
+      <text>
+        <t>Method used to cool the drive</t>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing drive performance when operating</t>
       </text>
     </comment>
   </commentList>
@@ -256,24 +324,29 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
-      <text>
-        <t>Data group describing grid variables for continuous fan performance</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
-      <text>
-        <t>Data group describing lookup variables for continuous fan performance</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing grid variables for drive performance</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing lookup variables for drive performance</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <t>Power delivered to the motor</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
-      <text>
-        <t>Efficiency of motor</t>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Frequency delivered to the motor</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Efficiency of drive</t>
       </text>
     </comment>
   </commentList>
@@ -577,58 +650,58 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="50"/>
-    <col customWidth="1" max="3" min="3" style="1" width="31"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="50" customWidth="1" style="1" min="2" max="2"/>
+    <col width="31" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -717,17 +790,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>standard_version</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>PPR2</t>
-        </is>
-      </c>
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>metadata</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="5" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="6" t="inlineStr">
         <is>
@@ -739,12 +808,12 @@
       <c r="A4" s="4" t="n"/>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>schema_version</t>
+          <t>data_model</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>ASHRAE_205</t>
         </is>
       </c>
       <c r="D4" s="4" t="n"/>
@@ -758,12 +827,12 @@
       <c r="A5" s="4" t="n"/>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>RS_ID</t>
+          <t>schema_version</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>RS0006</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="D5" s="4" t="n"/>
@@ -777,12 +846,12 @@
       <c r="A6" s="4" t="n"/>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>schema</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>Electronic Motor Drive with Constant Efficiency</t>
+          <t>RS0006</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -796,12 +865,12 @@
       <c r="A7" s="4" t="n"/>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>bcf8b859-67a3-42f4-8f8d-4e57af1ccf22</t>
+          <t>Electronic Motor Drive with Constant Efficiency</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -815,12 +884,12 @@
       <c r="A8" s="4" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>data_timestamp</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>2020-04-08T00:00Z</t>
+          <t>bcf8b859-67a3-42f4-8f8d-4e57af1ccf22</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -834,11 +903,13 @@
       <c r="A9" s="4" t="n"/>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>data_version</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>1</v>
+          <t>data_timestamp</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>2020-04-08T00:00Z</t>
+        </is>
       </c>
       <c r="D9" s="4" t="n"/>
       <c r="E9" s="6" t="inlineStr">
@@ -851,27 +922,29 @@
       <c r="A10" s="4" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>data_source</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>Committee</t>
-        </is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="D10" s="4" t="n"/>
-      <c r="E10" s="6" t="n"/>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>disclaimer</t>
+          <t>data_source</t>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>Example data not to be used for simulation</t>
+          <t>Committee</t>
         </is>
       </c>
       <c r="D11" s="4" t="n"/>
@@ -881,36 +954,36 @@
       <c r="A12" s="4" t="n"/>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>notes</t>
+          <t>disclaimer</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>An example representation that applies a constant efficiency of 0.985</t>
+          <t>Example data not to be used for simulation</t>
         </is>
       </c>
       <c r="D12" s="4" t="n"/>
       <c r="E12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>RS_instance</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="n"/>
-      <c r="C13" s="5" t="n"/>
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>An example representation that applies a constant efficiency of 0.985</t>
+        </is>
+      </c>
       <c r="D13" s="4" t="n"/>
-      <c r="E13" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E13" s="6" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.description</t>
+          <t>description</t>
         </is>
       </c>
       <c r="B14" s="4" t="n"/>
@@ -921,7 +994,7 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.description.product_information</t>
+          <t>description.product_information</t>
         </is>
       </c>
       <c r="B15" s="4" t="n"/>
@@ -933,7 +1006,7 @@
       <c r="A16" s="4" t="n"/>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        manufacturer</t>
+          <t xml:space="preserve">    manufacturer</t>
         </is>
       </c>
       <c r="C16" s="5" t="inlineStr">
@@ -942,17 +1015,13 @@
         </is>
       </c>
       <c r="D16" s="4" t="n"/>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n"/>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        model_number</t>
+          <t xml:space="preserve">    model_number</t>
         </is>
       </c>
       <c r="C17" s="5" t="inlineStr">
@@ -961,28 +1030,28 @@
         </is>
       </c>
       <c r="D17" s="4" t="n"/>
-      <c r="E17" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="B18" s="4" t="n"/>
       <c r="C18" s="5" t="n"/>
       <c r="D18" s="4" t="n"/>
-      <c r="E18" s="6" t="n"/>
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="n"/>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    maximum_power</t>
+          <t>maximum_power</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -993,13 +1062,17 @@
           <t>W</t>
         </is>
       </c>
-      <c r="E19" s="6" t="n"/>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n"/>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    standby_power</t>
+          <t>standby_power</t>
         </is>
       </c>
       <c r="C20" s="5" t="n">
@@ -1010,13 +1083,17 @@
           <t>W</t>
         </is>
       </c>
-      <c r="E20" s="6" t="n"/>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="n"/>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cooling_method</t>
+          <t>cooling_method</t>
         </is>
       </c>
       <c r="C21" s="5" t="inlineStr">
@@ -1025,12 +1102,16 @@
         </is>
       </c>
       <c r="D21" s="4" t="n"/>
-      <c r="E21" s="6" t="n"/>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.performance_map</t>
+          <t>performance.performance_map</t>
         </is>
       </c>
       <c r="B22" s="4" t="n"/>
@@ -1040,24 +1121,25 @@
         </is>
       </c>
       <c r="D22" s="4" t="n"/>
-      <c r="E22" s="6" t="n"/>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3" type="list">
-      <formula1>"PPR2"</formula1>
+  <dataValidations count="2">
+    <dataValidation sqref="C6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
-      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C21" type="list">
+    <dataValidation sqref="C21" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"PASSIVE_COOLED,ACTIVE_AIR_COOLED,ACTIVE_LIQUID_COOLED"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C22" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
@@ -1068,7 +1150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ6"/>
+  <dimension ref="A1:AZ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1076,64 +1158,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="13"/>
-    <col customWidth="1" max="3" min="3" style="1" width="13"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS_instance.performance.performance_map</t>
+          <t>performance.performance_map</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1194,7 +1276,8 @@
           <t>grid_variables</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>lookup_variables</t>
         </is>
@@ -1206,7 +1289,12 @@
           <t>output_power</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>output_frequency</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>efficiency</t>
         </is>
@@ -1218,7 +1306,12 @@
           <t>W</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1229,19 +1322,47 @@
         <v>4052</v>
       </c>
       <c r="B5" s="5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>0.985</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
+        <v>4052</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>114.6</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.985</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
         <v>8105</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B7" s="5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C7" s="5" t="n">
         <v>0.985</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>8105</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>114.6</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.985</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
--- a/assets/examples/xlsx/RS0006/Drive-Constant-Efficiency.RS0006.a205.xlsx
+++ b/assets/examples/xlsx/RS0006/Drive-Constant-Efficiency.RS0006.a205.xlsx
@@ -832,7 +832,7 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D5" s="4" t="n"/>

--- a/assets/examples/xlsx/RS0006/Drive-Constant-Efficiency.RS0006.a205.xlsx
+++ b/assets/examples/xlsx/RS0006/Drive-Constant-Efficiency.RS0006.a205.xlsx
@@ -832,7 +832,7 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D5" s="4" t="n"/>

--- a/assets/examples/xlsx/RS0006/Drive-Constant-Efficiency.RS0006.a205.xlsx
+++ b/assets/examples/xlsx/RS0006/Drive-Constant-Efficiency.RS0006.a205.xlsx
@@ -347,6 +347,11 @@
     <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <t>Efficiency of drive</t>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -832,7 +837,7 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D5" s="4" t="n"/>
@@ -1129,10 +1134,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="C6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C21" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C21" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"PASSIVE_COOLED,ACTIVE_AIR_COOLED,ACTIVE_LIQUID_COOLED"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1282,6 +1287,7 @@
           <t>lookup_variables</t>
         </is>
       </c>
+      <c r="D2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -1299,6 +1305,11 @@
           <t>efficiency</t>
         </is>
       </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>operation_state</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -1312,6 +1323,11 @@
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1327,6 +1343,11 @@
       <c r="C5" s="5" t="n">
         <v>0.985</v>
       </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -1338,6 +1359,11 @@
       <c r="C6" s="5" t="n">
         <v>0.985</v>
       </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -1349,6 +1375,11 @@
       <c r="C7" s="5" t="n">
         <v>0.985</v>
       </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -1359,6 +1390,11 @@
       </c>
       <c r="C8" s="5" t="n">
         <v>0.985</v>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
